--- a/test_with_predictions.xlsx
+++ b/test_with_predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_23F921ED3993881F932D4C5195910250707CBDA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D479972-C5BC-49DF-AA2C-8731EF18A0BE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_23F921ED3993881F932D4C5195910250707CBDA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D42A5CD-7C81-4116-85BE-23D4C35C6D36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>American</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Predicted Score Difference</t>
+  </si>
+  <si>
+    <t>Mount St. Mary's</t>
   </si>
 </sst>
 </file>
@@ -315,6 +315,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,7 +611,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,16 +623,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -650,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -664,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -675,13 +679,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>28.044670543006429</v>
@@ -689,13 +693,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>7.4046290410777988</v>
@@ -703,13 +707,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2.8453458859821108</v>
@@ -717,13 +721,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>2.808727672811393</v>
@@ -731,13 +735,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2.5303670427951919</v>
@@ -745,13 +749,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>4.1471116632551599</v>
@@ -759,13 +763,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>4.2870079165666759</v>
@@ -773,13 +777,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>3.0474147706028578</v>
@@ -787,13 +791,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5.6297072890087803</v>
@@ -801,13 +805,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>7.9705361394252181</v>
@@ -815,13 +819,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>8.2289019384640358</v>
@@ -829,13 +833,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>16.621085893022901</v>
@@ -843,13 +847,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>18.47573786556174</v>
@@ -857,13 +861,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>17.027319722865819</v>
@@ -871,13 +875,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>18.750027291571691</v>
@@ -885,13 +889,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>22.46528510132211</v>
@@ -899,13 +903,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>3.324951629152944</v>
@@ -913,13 +917,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>2.0219263245664689</v>
@@ -927,13 +931,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>0.99428804211149857</v>
@@ -941,13 +945,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>2.9099950676688771</v>
@@ -955,13 +959,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>3.9337446422954918</v>
@@ -969,13 +973,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>1.869204634653491</v>
@@ -983,13 +987,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>13.16571025952473</v>
@@ -997,13 +1001,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>14.031412650813129</v>
@@ -1011,13 +1015,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>13.9651334144879</v>
@@ -1025,13 +1029,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>21.48789852387138</v>
@@ -1039,13 +1043,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>11.853079328585149</v>
@@ -1053,13 +1057,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>19.02158194435972</v>
@@ -1067,13 +1071,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>24.28522258523164</v>

--- a/test_with_predictions.xlsx
+++ b/test_with_predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_23F921ED3993881F932D4C5195910250707CBDA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D42A5CD-7C81-4116-85BE-23D4C35C6D36}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_23F921ED3993881F932D4C5195910250707CBDA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC7BC28-4A67-48EF-8CDA-6D5213AD5DDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
-  <si>
-    <t>Auburn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Mississippi</t>
   </si>
@@ -44,51 +41,6 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Creighton</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>High Point</t>
-  </si>
-  <si>
-    <t>Nebraska Omaha</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>Marquette</t>
   </si>
   <si>
@@ -128,67 +80,19 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>St. John's</t>
-  </si>
-  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>VCU</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
     <t>Michigan St.</t>
   </si>
   <si>
-    <t>Alabama St.</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
     <t>Xavier</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>UC San Diego</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Utah St.</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>McNeese St.</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>UNC Wilmington</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wofford</t>
-  </si>
-  <si>
-    <t>SIU Edwardsville</t>
   </si>
   <si>
     <t>New Mexico</t>
@@ -608,478 +512,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>25.89484340796534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4569723544608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.4569723544608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1287161278479418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>28.044670543006429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2.1287161278479418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5">
-        <v>28.044670543006429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.324951629152944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>7.4046290410777988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0219263245664689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2.8453458859821108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.99428804211149857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>2.808727672811393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9099950676688771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>2.5303670427951919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9337446422954918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>4.1471116632551599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.869204634653491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>4.2870079165666759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.16571025952473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>3.0474147706028578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14.031412650813129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>5.6297072890087803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.9651334144879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>7.9705361394252181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21.48789852387138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8.2289019384640358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11.853079328585149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>16.621085893022901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19.02158194435972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>18.47573786556174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>17.027319722865819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>18.750027291571691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>22.46528510132211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>3.324951629152944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>2.0219263245664689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>0.99428804211149857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24">
-        <v>2.9099950676688771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>3.9337446422954918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>1.869204634653491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>13.16571025952473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>14.031412650813129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>13.9651334144879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>21.48789852387138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>11.853079328585149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32">
-        <v>19.02158194435972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33">
         <v>24.28522258523164</v>
       </c>
     </row>

--- a/test_with_predictions.xlsx
+++ b/test_with_predictions.xlsx
@@ -5,142 +5,129 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_23F921ED3993881F932D4C5195910250707CBDA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC7BC28-4A67-48EF-8CDA-6D5213AD5DDC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_0399C0E8F613C8A6401828673271C45C75525AC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E97259-09A5-4D54-8732-83DCEE8BE4CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
+    <t>Team1</t>
+  </si>
+  <si>
+    <t>Team2</t>
+  </si>
+  <si>
+    <t>Aurburn</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Michigan St.</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Iowa St.</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Mcneese St.</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>St. Mary's</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
     <t>Mississippi</t>
   </si>
   <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
     <t>Colorado St.</t>
   </si>
   <si>
-    <t>Grand Canyon</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Iowa St.</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Michigan St.</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Mississippi St.</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Robert Morris</t>
-  </si>
-  <si>
-    <t>Lipscomb</t>
-  </si>
-  <si>
-    <t>Norfolk St.</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>Winner</t>
   </si>
   <si>
     <t>Predicted Score Difference</t>
-  </si>
-  <si>
-    <t>Mount St. Mary's</t>
   </si>
 </sst>
 </file>
@@ -219,10 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,252 +498,250 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1.4569723544608</v>
+        <v>0.33654551576752412</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2.1287161278479418</v>
+        <v>0.94829601939764008</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>28.044670543006429</v>
+        <v>5.4591813895286911</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>3.324951629152944</v>
+        <v>5.144142584729412</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2.0219263245664689</v>
+        <v>4.4225274475053631</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.99428804211149857</v>
+        <v>2.716446342000888</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2.9099950676688771</v>
+        <v>2.6723150913873188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3.9337446422954918</v>
+        <v>10.161268590404671</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>1.869204634653491</v>
+        <v>8.5937672899938367</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>13.16571025952473</v>
+        <v>9.3279978707521529</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>14.031412650813129</v>
+        <v>7.6765748228771864</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>13.9651334144879</v>
+        <v>6.4377988475219023</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>21.48789852387138</v>
+        <v>0.41521921874084688</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>11.853079328585149</v>
+        <v>5.1401837267721007</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>19.02158194435972</v>
+        <v>5.9045024664638186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>24.28522258523164</v>
+        <v>5.5126204787522131</v>
       </c>
     </row>
   </sheetData>

--- a/test_with_predictions.xlsx
+++ b/test_with_predictions.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0399C0E8F613C8A6401828673271C45C75525AC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65E97259-09A5-4D54-8732-83DCEE8BE4CF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_45F68127701092474A3C340BA876E978955017F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8F7C29E-47BD-4BA1-9C1A-1EEB7B1A4545}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Team1</t>
   </si>
@@ -28,7 +41,22 @@
     <t>Team2</t>
   </si>
   <si>
-    <t>Aurburn</t>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Michigan St.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
   <si>
     <t>Houston</t>
@@ -37,91 +65,28 @@
     <t>Tennessee</t>
   </si>
   <si>
-    <t>St. John's</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>BYU</t>
   </si>
   <si>
     <t>Purdue</t>
   </si>
   <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Michigan St.</t>
-  </si>
-  <si>
     <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Iowa St.</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Creighton</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Mcneese St.</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>St. Mary's</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Colorado St.</t>
-  </si>
-  <si>
-    <t>Oregon</t>
   </si>
   <si>
     <t>Winner</t>
@@ -206,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,16 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -514,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,13 +491,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2</f>
+        <v>Auburn</v>
       </c>
       <c r="D2">
-        <v>0.33654551576752412</v>
+        <v>10.934902093620931</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -539,13 +506,14 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C9" si="0">A3</f>
+        <v>Michigan St.</v>
       </c>
       <c r="D3">
-        <v>0.94829601939764008</v>
+        <v>4.8935480621077163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,13 +521,14 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Florida</v>
       </c>
       <c r="D4">
-        <v>5.4591813895286911</v>
+        <v>2.837252108077851</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -567,13 +536,14 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Texas Tech</v>
       </c>
       <c r="D5">
-        <v>5.144142584729412</v>
+        <v>11.11084600667767</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -581,13 +551,14 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Duke</v>
       </c>
       <c r="D6">
-        <v>4.4225274475053631</v>
+        <v>4.4663753778711097</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -595,13 +566,14 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Alabama</v>
       </c>
       <c r="D7">
-        <v>2.716446342000888</v>
+        <v>6.3878704781441886</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -609,13 +581,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Houston</v>
       </c>
       <c r="D8">
-        <v>2.6723150913873188</v>
+        <v>3.749478730384971</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -623,125 +596,14 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Tennessee</v>
       </c>
       <c r="D9">
-        <v>10.161268590404671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>8.5937672899938367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>9.3279978707521529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>7.6765748228771864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>6.4377988475219023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0.41521921874084688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>5.1401837267721007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>5.9045024664638186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>5.5126204787522131</v>
+        <v>4.15925317170373</v>
       </c>
     </row>
   </sheetData>

--- a/test_with_predictions.xlsx
+++ b/test_with_predictions.xlsx
@@ -5,35 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0539dea2a034f6e/Documents/MM25golive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_45F68127701092474A3C340BA876E978955017F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8F7C29E-47BD-4BA1-9C1A-1EEB7B1A4545}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_ACF923352A31921FD2FE31D2F8A863054FE80E3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314B54FF-097E-486C-B7F7-D4760B5E20D6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Team1</t>
   </si>
@@ -44,49 +31,25 @@
     <t>Auburn</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
     <t>Michigan St.</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
   </si>
   <si>
-    <t>Duke</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
     <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
   </si>
   <si>
     <t>Winner</t>
@@ -171,10 +134,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -491,14 +450,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="str">
-        <f>A2</f>
-        <v>Auburn</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>10.934902093620931</v>
+        <v>5.8595544965272603</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -506,14 +464,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C9" si="0">A3</f>
-        <v>Michigan St.</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4.8935480621077163</v>
+        <v>0.40823675122630698</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -521,14 +478,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Florida</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2.837252108077851</v>
+        <v>1.956564658704868</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -536,74 +492,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Texas Tech</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>11.11084600667767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Duke</v>
-      </c>
-      <c r="D6">
-        <v>4.4663753778711097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Alabama</v>
-      </c>
-      <c r="D7">
-        <v>6.3878704781441886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Houston</v>
-      </c>
-      <c r="D8">
-        <v>3.749478730384971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Tennessee</v>
-      </c>
-      <c r="D9">
-        <v>4.15925317170373</v>
+        <v>0.85560703208208611</v>
       </c>
     </row>
   </sheetData>
